--- a/biology/Biochimie/POLR2A/POLR2A.xlsx
+++ b/biology/Biochimie/POLR2A/POLR2A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La sous-unité RPB1 de l'ARN polymérase II ADN-dépendante, également appelée RPB1, est la plus grosse sous-unité de l'ARN polymérase II, codée chez l'homme par le gène POLR2A; situé sur le chromosome 17. L'ARN polymérase II est l'ARN polymérase assurant la transcription de l'ADN en ARN messager chez les eucaryotes. Le domaine C-terminal porte une répétition de sept résidus d'acides aminés — Tyr–Ser–Pro–Thr–Ser–Pro–Ser — essentiels à l'activité polymérase[3]. Les résidus de sérine et de thréonine sont phosphorylés pour activer l'enzyme. Avec d'autres sous-unités de la polymérase, cette sous-unité constitue le domaine de liaison à l'ADN du complexe enzymatique, qui forme un sillon au sein duquel l'ADN est transcrit en ARN.
+La sous-unité RPB1 de l'ARN polymérase II ADN-dépendante, également appelée RPB1, est la plus grosse sous-unité de l'ARN polymérase II, codée chez l'homme par le gène POLR2A; situé sur le chromosome 17. L'ARN polymérase II est l'ARN polymérase assurant la transcription de l'ADN en ARN messager chez les eucaryotes. Le domaine C-terminal porte une répétition de sept résidus d'acides aminés — Tyr–Ser–Pro–Thr–Ser–Pro–Ser — essentiels à l'activité polymérase. Les résidus de sérine et de thréonine sont phosphorylés pour activer l'enzyme. Avec d'autres sous-unités de la polymérase, cette sous-unité constitue le domaine de liaison à l'ADN du complexe enzymatique, qui forme un sillon au sein duquel l'ADN est transcrit en ARN.
 Cette protéine possède deux activités enzymatiques, l'une dirigée par l'ADN, l'autre dirigée par l'ARN : 
 </t>
         </is>
